--- a/3.5.1/3.5.1/src/main/webapp/file/users.xlsx
+++ b/3.5.1/3.5.1/src/main/webapp/file/users.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="115">
   <si>
     <t>id</t>
   </si>
@@ -23,307 +23,340 @@
     <t>密码</t>
   </si>
   <si>
-    <t>范舱篡</t>
+    <t>赵靠</t>
   </si>
   <si>
     <t>123456</t>
   </si>
   <si>
-    <t>邹号噬</t>
-  </si>
-  <si>
-    <t>龙鳃</t>
-  </si>
-  <si>
-    <t>张佰</t>
-  </si>
-  <si>
-    <t>曹搅欧</t>
-  </si>
-  <si>
-    <t>常咐仆</t>
-  </si>
-  <si>
-    <t>金叙胁</t>
-  </si>
-  <si>
-    <t>常撩无</t>
-  </si>
-  <si>
-    <t>夏咒奉</t>
-  </si>
-  <si>
-    <t>杜器嗽</t>
-  </si>
-  <si>
-    <t>姚胚</t>
-  </si>
-  <si>
-    <t>杜庶串</t>
-  </si>
-  <si>
-    <t>丁截驱</t>
-  </si>
-  <si>
-    <t>赵速派</t>
-  </si>
-  <si>
-    <t>毛铜臂</t>
-  </si>
-  <si>
-    <t>徐痘</t>
-  </si>
-  <si>
-    <t>袁眼毁</t>
-  </si>
-  <si>
-    <t>宋徐</t>
-  </si>
-  <si>
-    <t>丁垛捍</t>
-  </si>
-  <si>
-    <t>范灶饯</t>
-  </si>
-  <si>
-    <t>卢栓</t>
-  </si>
-  <si>
-    <t>杜涣</t>
-  </si>
-  <si>
-    <t>罗颜</t>
-  </si>
-  <si>
-    <t>宋惦</t>
-  </si>
-  <si>
-    <t>孙贪脑</t>
-  </si>
-  <si>
-    <t>常拿</t>
-  </si>
-  <si>
-    <t>赖熔</t>
-  </si>
-  <si>
-    <t>唐垢</t>
-  </si>
-  <si>
-    <t>任杰</t>
-  </si>
-  <si>
-    <t>常欲</t>
-  </si>
-  <si>
-    <t>任进</t>
-  </si>
-  <si>
-    <t>郑嫉</t>
-  </si>
-  <si>
-    <t>邵詹桓</t>
-  </si>
-  <si>
-    <t>金厘的</t>
-  </si>
-  <si>
-    <t>徐华罐</t>
-  </si>
-  <si>
-    <t>徐肢芒</t>
-  </si>
-  <si>
-    <t>董斟</t>
-  </si>
-  <si>
-    <t>谢柄</t>
-  </si>
-  <si>
-    <t>郝文</t>
-  </si>
-  <si>
-    <t>许叹</t>
-  </si>
-  <si>
-    <t>刘埔盼</t>
-  </si>
-  <si>
-    <t>杜鼻均</t>
-  </si>
-  <si>
-    <t>贺支</t>
-  </si>
-  <si>
-    <t>马语</t>
-  </si>
-  <si>
-    <t>魏鼓</t>
-  </si>
-  <si>
-    <t>万芜</t>
-  </si>
-  <si>
-    <t>薛讼</t>
-  </si>
-  <si>
-    <t>夏懒</t>
-  </si>
-  <si>
-    <t>曾爵</t>
-  </si>
-  <si>
-    <t>冯锋普</t>
-  </si>
-  <si>
-    <t>罗魂沾</t>
-  </si>
-  <si>
-    <t>赵莽确</t>
-  </si>
-  <si>
-    <t>顾伴讳</t>
-  </si>
-  <si>
-    <t>田己</t>
-  </si>
-  <si>
-    <t>郝凌遥</t>
-  </si>
-  <si>
-    <t>黄熬</t>
-  </si>
-  <si>
-    <t>徐会侧</t>
-  </si>
-  <si>
-    <t>贾谓</t>
-  </si>
-  <si>
-    <t>朱湃</t>
-  </si>
-  <si>
-    <t>侯妨畸</t>
-  </si>
-  <si>
-    <t>何税心</t>
-  </si>
-  <si>
-    <t>秦瓦脸</t>
-  </si>
-  <si>
-    <t>蒋授放</t>
-  </si>
-  <si>
-    <t>熊构</t>
-  </si>
-  <si>
-    <t>武蜀鸯</t>
-  </si>
-  <si>
-    <t>熊豫</t>
-  </si>
-  <si>
-    <t>沈暇八</t>
-  </si>
-  <si>
-    <t>张栋再</t>
-  </si>
-  <si>
-    <t>曾钥</t>
-  </si>
-  <si>
-    <t>尹咱侈</t>
-  </si>
-  <si>
-    <t>马巳彭</t>
-  </si>
-  <si>
-    <t>萧番插</t>
-  </si>
-  <si>
-    <t>袁戎累</t>
-  </si>
-  <si>
-    <t>沈省狐</t>
-  </si>
-  <si>
-    <t>孔塑</t>
-  </si>
-  <si>
-    <t>康罗</t>
-  </si>
-  <si>
-    <t>龙恒涵</t>
-  </si>
-  <si>
-    <t>高娟习</t>
-  </si>
-  <si>
-    <t>秦师</t>
-  </si>
-  <si>
-    <t>林伟</t>
-  </si>
-  <si>
-    <t>秦聂</t>
-  </si>
-  <si>
-    <t>程闭豫</t>
-  </si>
-  <si>
-    <t>廖猪</t>
-  </si>
-  <si>
-    <t>谢嚎</t>
-  </si>
-  <si>
-    <t>常锯究</t>
-  </si>
-  <si>
-    <t>朱掺</t>
-  </si>
-  <si>
-    <t>郭蛛</t>
-  </si>
-  <si>
-    <t>赵阁澈</t>
-  </si>
-  <si>
-    <t>罗忻</t>
-  </si>
-  <si>
-    <t>马抡明</t>
-  </si>
-  <si>
-    <t>邓趣</t>
-  </si>
-  <si>
-    <t>蔡脐</t>
-  </si>
-  <si>
-    <t>杜兵</t>
-  </si>
-  <si>
-    <t>曾蹈葛</t>
-  </si>
-  <si>
-    <t>彭导</t>
-  </si>
-  <si>
-    <t>王愁捧</t>
-  </si>
-  <si>
-    <t>熊睹惶</t>
-  </si>
-  <si>
-    <t>黎辐</t>
-  </si>
-  <si>
-    <t>郝井牌</t>
-  </si>
-  <si>
-    <t>萧玲</t>
+    <t>万豌慑</t>
+  </si>
+  <si>
+    <t>秦泻寥</t>
+  </si>
+  <si>
+    <t>余钧唾</t>
+  </si>
+  <si>
+    <t>钟跋道</t>
+  </si>
+  <si>
+    <t>龙淘</t>
+  </si>
+  <si>
+    <t>罗蕾</t>
+  </si>
+  <si>
+    <t>陆除</t>
+  </si>
+  <si>
+    <t>龚钵</t>
+  </si>
+  <si>
+    <t>易幂垫</t>
+  </si>
+  <si>
+    <t>范各</t>
+  </si>
+  <si>
+    <t>马裴</t>
+  </si>
+  <si>
+    <t>石喇交</t>
+  </si>
+  <si>
+    <t>秦业架</t>
+  </si>
+  <si>
+    <t>王协</t>
+  </si>
+  <si>
+    <t>崔橡</t>
+  </si>
+  <si>
+    <t>赖诲</t>
+  </si>
+  <si>
+    <t>蔡酬层</t>
+  </si>
+  <si>
+    <t>易岭肾</t>
+  </si>
+  <si>
+    <t>周扦甜</t>
+  </si>
+  <si>
+    <t>朱胡</t>
+  </si>
+  <si>
+    <t>邓窜</t>
+  </si>
+  <si>
+    <t>韩挛毡</t>
+  </si>
+  <si>
+    <t>曹褥</t>
+  </si>
+  <si>
+    <t>苏汾</t>
+  </si>
+  <si>
+    <t>侯铁</t>
+  </si>
+  <si>
+    <t>程厢待</t>
+  </si>
+  <si>
+    <t>钟励</t>
+  </si>
+  <si>
+    <t>余酷导</t>
+  </si>
+  <si>
+    <t>杜更</t>
+  </si>
+  <si>
+    <t>秦巾姐</t>
+  </si>
+  <si>
+    <t>顾谓西</t>
+  </si>
+  <si>
+    <t>姜兑隔</t>
+  </si>
+  <si>
+    <t>龚檬你</t>
+  </si>
+  <si>
+    <t>唐燎</t>
+  </si>
+  <si>
+    <t>姚医</t>
+  </si>
+  <si>
+    <t>魏俯犬</t>
+  </si>
+  <si>
+    <t>郑遁间</t>
+  </si>
+  <si>
+    <t>胡方</t>
+  </si>
+  <si>
+    <t>徐指粕</t>
+  </si>
+  <si>
+    <t>赖阜</t>
+  </si>
+  <si>
+    <t>戴佰振</t>
+  </si>
+  <si>
+    <t>金胖阀</t>
+  </si>
+  <si>
+    <t>程脾掺</t>
+  </si>
+  <si>
+    <t>易音长</t>
+  </si>
+  <si>
+    <t>丁井</t>
+  </si>
+  <si>
+    <t>赖秆络</t>
+  </si>
+  <si>
+    <t>侯沏</t>
+  </si>
+  <si>
+    <t>江份苔</t>
+  </si>
+  <si>
+    <t>卢绥国</t>
+  </si>
+  <si>
+    <t>熊那</t>
+  </si>
+  <si>
+    <t>孔押哥</t>
+  </si>
+  <si>
+    <t>侯洼曳</t>
+  </si>
+  <si>
+    <t>唐沾近</t>
+  </si>
+  <si>
+    <t>周迢绩</t>
+  </si>
+  <si>
+    <t>余睡戴</t>
+  </si>
+  <si>
+    <t>黄肖</t>
+  </si>
+  <si>
+    <t>李滚量</t>
+  </si>
+  <si>
+    <t>戴蒂膀</t>
+  </si>
+  <si>
+    <t>张锋</t>
+  </si>
+  <si>
+    <t>赖对</t>
+  </si>
+  <si>
+    <t>熊虾滚</t>
+  </si>
+  <si>
+    <t>史锚</t>
+  </si>
+  <si>
+    <t>周抢</t>
+  </si>
+  <si>
+    <t>白褒</t>
+  </si>
+  <si>
+    <t>康竣</t>
+  </si>
+  <si>
+    <t>董潍贬</t>
+  </si>
+  <si>
+    <t>马拿</t>
+  </si>
+  <si>
+    <t>余忘侗</t>
+  </si>
+  <si>
+    <t>韩撇</t>
+  </si>
+  <si>
+    <t>汪稿倡</t>
+  </si>
+  <si>
+    <t>白买达</t>
+  </si>
+  <si>
+    <t>钟昭</t>
+  </si>
+  <si>
+    <t>邱餐碳</t>
+  </si>
+  <si>
+    <t>王里氦</t>
+  </si>
+  <si>
+    <t>邱厂</t>
+  </si>
+  <si>
+    <t>任温</t>
+  </si>
+  <si>
+    <t>黎忌第</t>
+  </si>
+  <si>
+    <t>贺簿</t>
+  </si>
+  <si>
+    <t>漕很</t>
+  </si>
+  <si>
+    <t>郝飞呜</t>
+  </si>
+  <si>
+    <t>韩节痔</t>
+  </si>
+  <si>
+    <t>沈景侗</t>
+  </si>
+  <si>
+    <t>沈详</t>
+  </si>
+  <si>
+    <t>卢悸</t>
+  </si>
+  <si>
+    <t>宋慨</t>
+  </si>
+  <si>
+    <t>萧疯</t>
+  </si>
+  <si>
+    <t>董浮</t>
+  </si>
+  <si>
+    <t>白侠</t>
+  </si>
+  <si>
+    <t>许平狭</t>
+  </si>
+  <si>
+    <t>郭顿</t>
+  </si>
+  <si>
+    <t>易鞠</t>
+  </si>
+  <si>
+    <t>曹菠斥</t>
+  </si>
+  <si>
+    <t>胡骄券</t>
+  </si>
+  <si>
+    <t>李纤殴</t>
+  </si>
+  <si>
+    <t>唐肪</t>
+  </si>
+  <si>
+    <t>漕袱慢</t>
+  </si>
+  <si>
+    <t>江帛荔</t>
+  </si>
+  <si>
+    <t>曹牟</t>
+  </si>
+  <si>
+    <t>高派</t>
+  </si>
+  <si>
+    <t>石几沉</t>
+  </si>
+  <si>
+    <t>曾析盈</t>
+  </si>
+  <si>
+    <t>程呸蝇</t>
+  </si>
+  <si>
+    <t>陈猩</t>
+  </si>
+  <si>
+    <t>任捕</t>
+  </si>
+  <si>
+    <t>漕丧</t>
+  </si>
+  <si>
+    <t>吕球柄</t>
+  </si>
+  <si>
+    <t>何登钒</t>
+  </si>
+  <si>
+    <t>马摔</t>
+  </si>
+  <si>
+    <t>薛押</t>
+  </si>
+  <si>
+    <t>罗魔撑</t>
   </si>
 </sst>
 </file>
@@ -368,7 +401,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D101"/>
+  <dimension ref="A1:D112"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1485,6 +1518,127 @@
         <v>4</v>
       </c>
     </row>
+    <row r="102">
+      <c r="A102" t="n">
+        <v>1101.0</v>
+      </c>
+      <c r="B102" t="s">
+        <v>104</v>
+      </c>
+      <c r="C102" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="n">
+        <v>1102.0</v>
+      </c>
+      <c r="B103" t="s">
+        <v>105</v>
+      </c>
+      <c r="C103" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="n">
+        <v>1103.0</v>
+      </c>
+      <c r="B104" t="s">
+        <v>106</v>
+      </c>
+      <c r="C104" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="n">
+        <v>1104.0</v>
+      </c>
+      <c r="B105" t="s">
+        <v>107</v>
+      </c>
+      <c r="C105" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="n">
+        <v>1105.0</v>
+      </c>
+      <c r="B106" t="s">
+        <v>108</v>
+      </c>
+      <c r="C106" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="n">
+        <v>1106.0</v>
+      </c>
+      <c r="B107" t="s">
+        <v>109</v>
+      </c>
+      <c r="C107" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="n">
+        <v>1107.0</v>
+      </c>
+      <c r="B108" t="s">
+        <v>110</v>
+      </c>
+      <c r="C108" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="n">
+        <v>1108.0</v>
+      </c>
+      <c r="B109" t="s">
+        <v>111</v>
+      </c>
+      <c r="C109" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="n">
+        <v>1109.0</v>
+      </c>
+      <c r="B110" t="s">
+        <v>112</v>
+      </c>
+      <c r="C110" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="n">
+        <v>1110.0</v>
+      </c>
+      <c r="B111" t="s">
+        <v>113</v>
+      </c>
+      <c r="C111" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="n">
+        <v>1111.0</v>
+      </c>
+      <c r="B112" t="s">
+        <v>114</v>
+      </c>
+      <c r="C112" t="s">
+        <v>4</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/3.5.1/3.5.1/src/main/webapp/file/users.xlsx
+++ b/3.5.1/3.5.1/src/main/webapp/file/users.xlsx
@@ -23,340 +23,340 @@
     <t>密码</t>
   </si>
   <si>
-    <t>赵靠</t>
+    <t>林口淡</t>
   </si>
   <si>
     <t>123456</t>
   </si>
   <si>
-    <t>万豌慑</t>
-  </si>
-  <si>
-    <t>秦泻寥</t>
-  </si>
-  <si>
-    <t>余钧唾</t>
-  </si>
-  <si>
-    <t>钟跋道</t>
-  </si>
-  <si>
-    <t>龙淘</t>
-  </si>
-  <si>
-    <t>罗蕾</t>
-  </si>
-  <si>
-    <t>陆除</t>
-  </si>
-  <si>
-    <t>龚钵</t>
-  </si>
-  <si>
-    <t>易幂垫</t>
-  </si>
-  <si>
-    <t>范各</t>
-  </si>
-  <si>
-    <t>马裴</t>
-  </si>
-  <si>
-    <t>石喇交</t>
-  </si>
-  <si>
-    <t>秦业架</t>
-  </si>
-  <si>
-    <t>王协</t>
-  </si>
-  <si>
-    <t>崔橡</t>
-  </si>
-  <si>
-    <t>赖诲</t>
-  </si>
-  <si>
-    <t>蔡酬层</t>
-  </si>
-  <si>
-    <t>易岭肾</t>
-  </si>
-  <si>
-    <t>周扦甜</t>
-  </si>
-  <si>
-    <t>朱胡</t>
-  </si>
-  <si>
-    <t>邓窜</t>
-  </si>
-  <si>
-    <t>韩挛毡</t>
-  </si>
-  <si>
-    <t>曹褥</t>
-  </si>
-  <si>
-    <t>苏汾</t>
-  </si>
-  <si>
-    <t>侯铁</t>
-  </si>
-  <si>
-    <t>程厢待</t>
-  </si>
-  <si>
-    <t>钟励</t>
-  </si>
-  <si>
-    <t>余酷导</t>
-  </si>
-  <si>
-    <t>杜更</t>
-  </si>
-  <si>
-    <t>秦巾姐</t>
-  </si>
-  <si>
-    <t>顾谓西</t>
-  </si>
-  <si>
-    <t>姜兑隔</t>
-  </si>
-  <si>
-    <t>龚檬你</t>
-  </si>
-  <si>
-    <t>唐燎</t>
-  </si>
-  <si>
-    <t>姚医</t>
-  </si>
-  <si>
-    <t>魏俯犬</t>
-  </si>
-  <si>
-    <t>郑遁间</t>
-  </si>
-  <si>
-    <t>胡方</t>
-  </si>
-  <si>
-    <t>徐指粕</t>
-  </si>
-  <si>
-    <t>赖阜</t>
-  </si>
-  <si>
-    <t>戴佰振</t>
-  </si>
-  <si>
-    <t>金胖阀</t>
-  </si>
-  <si>
-    <t>程脾掺</t>
-  </si>
-  <si>
-    <t>易音长</t>
-  </si>
-  <si>
-    <t>丁井</t>
-  </si>
-  <si>
-    <t>赖秆络</t>
-  </si>
-  <si>
-    <t>侯沏</t>
-  </si>
-  <si>
-    <t>江份苔</t>
-  </si>
-  <si>
-    <t>卢绥国</t>
-  </si>
-  <si>
-    <t>熊那</t>
-  </si>
-  <si>
-    <t>孔押哥</t>
-  </si>
-  <si>
-    <t>侯洼曳</t>
-  </si>
-  <si>
-    <t>唐沾近</t>
-  </si>
-  <si>
-    <t>周迢绩</t>
-  </si>
-  <si>
-    <t>余睡戴</t>
-  </si>
-  <si>
-    <t>黄肖</t>
-  </si>
-  <si>
-    <t>李滚量</t>
-  </si>
-  <si>
-    <t>戴蒂膀</t>
-  </si>
-  <si>
-    <t>张锋</t>
-  </si>
-  <si>
-    <t>赖对</t>
-  </si>
-  <si>
-    <t>熊虾滚</t>
-  </si>
-  <si>
-    <t>史锚</t>
-  </si>
-  <si>
-    <t>周抢</t>
-  </si>
-  <si>
-    <t>白褒</t>
-  </si>
-  <si>
-    <t>康竣</t>
-  </si>
-  <si>
-    <t>董潍贬</t>
-  </si>
-  <si>
-    <t>马拿</t>
-  </si>
-  <si>
-    <t>余忘侗</t>
-  </si>
-  <si>
-    <t>韩撇</t>
-  </si>
-  <si>
-    <t>汪稿倡</t>
-  </si>
-  <si>
-    <t>白买达</t>
-  </si>
-  <si>
-    <t>钟昭</t>
-  </si>
-  <si>
-    <t>邱餐碳</t>
-  </si>
-  <si>
-    <t>王里氦</t>
-  </si>
-  <si>
-    <t>邱厂</t>
-  </si>
-  <si>
-    <t>任温</t>
-  </si>
-  <si>
-    <t>黎忌第</t>
-  </si>
-  <si>
-    <t>贺簿</t>
-  </si>
-  <si>
-    <t>漕很</t>
-  </si>
-  <si>
-    <t>郝飞呜</t>
-  </si>
-  <si>
-    <t>韩节痔</t>
-  </si>
-  <si>
-    <t>沈景侗</t>
-  </si>
-  <si>
-    <t>沈详</t>
-  </si>
-  <si>
-    <t>卢悸</t>
-  </si>
-  <si>
-    <t>宋慨</t>
-  </si>
-  <si>
-    <t>萧疯</t>
-  </si>
-  <si>
-    <t>董浮</t>
-  </si>
-  <si>
-    <t>白侠</t>
-  </si>
-  <si>
-    <t>许平狭</t>
-  </si>
-  <si>
-    <t>郭顿</t>
-  </si>
-  <si>
-    <t>易鞠</t>
-  </si>
-  <si>
-    <t>曹菠斥</t>
-  </si>
-  <si>
-    <t>胡骄券</t>
-  </si>
-  <si>
-    <t>李纤殴</t>
-  </si>
-  <si>
-    <t>唐肪</t>
-  </si>
-  <si>
-    <t>漕袱慢</t>
-  </si>
-  <si>
-    <t>江帛荔</t>
-  </si>
-  <si>
-    <t>曹牟</t>
-  </si>
-  <si>
-    <t>高派</t>
-  </si>
-  <si>
-    <t>石几沉</t>
-  </si>
-  <si>
-    <t>曾析盈</t>
-  </si>
-  <si>
-    <t>程呸蝇</t>
-  </si>
-  <si>
-    <t>陈猩</t>
-  </si>
-  <si>
-    <t>任捕</t>
-  </si>
-  <si>
-    <t>漕丧</t>
-  </si>
-  <si>
-    <t>吕球柄</t>
-  </si>
-  <si>
-    <t>何登钒</t>
-  </si>
-  <si>
-    <t>马摔</t>
-  </si>
-  <si>
-    <t>薛押</t>
-  </si>
-  <si>
-    <t>罗魔撑</t>
+    <t>蔡崎沮</t>
+  </si>
+  <si>
+    <t>汪对</t>
+  </si>
+  <si>
+    <t>康故安</t>
+  </si>
+  <si>
+    <t>林奥约</t>
+  </si>
+  <si>
+    <t>孔翱</t>
+  </si>
+  <si>
+    <t>郝倾逻</t>
+  </si>
+  <si>
+    <t>余繁</t>
+  </si>
+  <si>
+    <t>谢依名</t>
+  </si>
+  <si>
+    <t>邵履炯</t>
+  </si>
+  <si>
+    <t>马倡</t>
+  </si>
+  <si>
+    <t>萧米疲</t>
+  </si>
+  <si>
+    <t>罗尸汾</t>
+  </si>
+  <si>
+    <t>马叔迎</t>
+  </si>
+  <si>
+    <t>韩齐</t>
+  </si>
+  <si>
+    <t>傅课由</t>
+  </si>
+  <si>
+    <t>尹让</t>
+  </si>
+  <si>
+    <t>蔡堡靡</t>
+  </si>
+  <si>
+    <t>郝奇查</t>
+  </si>
+  <si>
+    <t>段凉卑</t>
+  </si>
+  <si>
+    <t>江因衍</t>
+  </si>
+  <si>
+    <t>郝淫绚</t>
+  </si>
+  <si>
+    <t>赵梦</t>
+  </si>
+  <si>
+    <t>万砷</t>
+  </si>
+  <si>
+    <t>尹甭</t>
+  </si>
+  <si>
+    <t>毛吨</t>
+  </si>
+  <si>
+    <t>尹禄</t>
+  </si>
+  <si>
+    <t>邱湍氰</t>
+  </si>
+  <si>
+    <t>乔划皱</t>
+  </si>
+  <si>
+    <t>许奇儒</t>
+  </si>
+  <si>
+    <t>杨失孩</t>
+  </si>
+  <si>
+    <t>魏辩</t>
+  </si>
+  <si>
+    <t>易釉浆</t>
+  </si>
+  <si>
+    <t>邹憎姆</t>
+  </si>
+  <si>
+    <t>汤截彝</t>
+  </si>
+  <si>
+    <t>邹蜕</t>
+  </si>
+  <si>
+    <t>任谢柄</t>
+  </si>
+  <si>
+    <t>宋氟</t>
+  </si>
+  <si>
+    <t>崔喷</t>
+  </si>
+  <si>
+    <t>方蜗</t>
+  </si>
+  <si>
+    <t>侯弯</t>
+  </si>
+  <si>
+    <t>赵评伤</t>
+  </si>
+  <si>
+    <t>戴珊</t>
+  </si>
+  <si>
+    <t>叶勺愚</t>
+  </si>
+  <si>
+    <t>龚爷</t>
+  </si>
+  <si>
+    <t>秦瞬</t>
+  </si>
+  <si>
+    <t>熊菱</t>
+  </si>
+  <si>
+    <t>薛谜</t>
+  </si>
+  <si>
+    <t>姜造</t>
+  </si>
+  <si>
+    <t>秦交</t>
+  </si>
+  <si>
+    <t>卢费葫</t>
+  </si>
+  <si>
+    <t>吴利消</t>
+  </si>
+  <si>
+    <t>潘恐荡</t>
+  </si>
+  <si>
+    <t>萧蒙读</t>
+  </si>
+  <si>
+    <t>段畔</t>
+  </si>
+  <si>
+    <t>杜拂</t>
+  </si>
+  <si>
+    <t>秦夫廉</t>
+  </si>
+  <si>
+    <t>段篙</t>
+  </si>
+  <si>
+    <t>武咯</t>
+  </si>
+  <si>
+    <t>吴聚</t>
+  </si>
+  <si>
+    <t>董很桨</t>
+  </si>
+  <si>
+    <t>常沏钒</t>
+  </si>
+  <si>
+    <t>傅灸</t>
+  </si>
+  <si>
+    <t>顾舒</t>
+  </si>
+  <si>
+    <t>贾钠练</t>
+  </si>
+  <si>
+    <t>贺妨</t>
+  </si>
+  <si>
+    <t>于祟</t>
+  </si>
+  <si>
+    <t>杜淳</t>
+  </si>
+  <si>
+    <t>康烧</t>
+  </si>
+  <si>
+    <t>白集世</t>
+  </si>
+  <si>
+    <t>贾屉</t>
+  </si>
+  <si>
+    <t>叶筷</t>
+  </si>
+  <si>
+    <t>廖空</t>
+  </si>
+  <si>
+    <t>邱喊铀</t>
+  </si>
+  <si>
+    <t>萧燥</t>
+  </si>
+  <si>
+    <t>谭储汇</t>
+  </si>
+  <si>
+    <t>罗除</t>
+  </si>
+  <si>
+    <t>钟伍含</t>
+  </si>
+  <si>
+    <t>田烫隶</t>
+  </si>
+  <si>
+    <t>段监津</t>
+  </si>
+  <si>
+    <t>汤鼠</t>
+  </si>
+  <si>
+    <t>周销</t>
+  </si>
+  <si>
+    <t>徐删</t>
+  </si>
+  <si>
+    <t>易怖沛</t>
+  </si>
+  <si>
+    <t>江引鉴</t>
+  </si>
+  <si>
+    <t>漕危抨</t>
+  </si>
+  <si>
+    <t>史蛊</t>
+  </si>
+  <si>
+    <t>漕摊</t>
+  </si>
+  <si>
+    <t>万姨锤</t>
+  </si>
+  <si>
+    <t>唐敛嗽</t>
+  </si>
+  <si>
+    <t>邓议</t>
+  </si>
+  <si>
+    <t>曾对购</t>
+  </si>
+  <si>
+    <t>刘靶缴</t>
+  </si>
+  <si>
+    <t>黎杀滔</t>
+  </si>
+  <si>
+    <t>崔纹</t>
+  </si>
+  <si>
+    <t>黎塌</t>
+  </si>
+  <si>
+    <t>金坍勒</t>
+  </si>
+  <si>
+    <t>邱传</t>
+  </si>
+  <si>
+    <t>沈赃番</t>
+  </si>
+  <si>
+    <t>萧导</t>
+  </si>
+  <si>
+    <t>傅抄舔</t>
+  </si>
+  <si>
+    <t>易拐</t>
+  </si>
+  <si>
+    <t>薛侵</t>
+  </si>
+  <si>
+    <t>王夺洽</t>
+  </si>
+  <si>
+    <t>熊轿</t>
+  </si>
+  <si>
+    <t>姜撒克</t>
+  </si>
+  <si>
+    <t>孔腔册</t>
+  </si>
+  <si>
+    <t>杨缎酮</t>
+  </si>
+  <si>
+    <t>唐逐</t>
+  </si>
+  <si>
+    <t>任孕吹</t>
+  </si>
+  <si>
+    <t>叶帘抹</t>
   </si>
 </sst>
 </file>

--- a/3.5.1/3.5.1/src/main/webapp/file/users.xlsx
+++ b/3.5.1/3.5.1/src/main/webapp/file/users.xlsx
@@ -23,340 +23,340 @@
     <t>密码</t>
   </si>
   <si>
-    <t>林口淡</t>
+    <t>何捞叛</t>
   </si>
   <si>
     <t>123456</t>
   </si>
   <si>
-    <t>蔡崎沮</t>
-  </si>
-  <si>
-    <t>汪对</t>
-  </si>
-  <si>
-    <t>康故安</t>
-  </si>
-  <si>
-    <t>林奥约</t>
-  </si>
-  <si>
-    <t>孔翱</t>
-  </si>
-  <si>
-    <t>郝倾逻</t>
-  </si>
-  <si>
-    <t>余繁</t>
-  </si>
-  <si>
-    <t>谢依名</t>
-  </si>
-  <si>
-    <t>邵履炯</t>
-  </si>
-  <si>
-    <t>马倡</t>
-  </si>
-  <si>
-    <t>萧米疲</t>
-  </si>
-  <si>
-    <t>罗尸汾</t>
-  </si>
-  <si>
-    <t>马叔迎</t>
-  </si>
-  <si>
-    <t>韩齐</t>
-  </si>
-  <si>
-    <t>傅课由</t>
-  </si>
-  <si>
-    <t>尹让</t>
-  </si>
-  <si>
-    <t>蔡堡靡</t>
-  </si>
-  <si>
-    <t>郝奇查</t>
-  </si>
-  <si>
-    <t>段凉卑</t>
-  </si>
-  <si>
-    <t>江因衍</t>
-  </si>
-  <si>
-    <t>郝淫绚</t>
-  </si>
-  <si>
-    <t>赵梦</t>
-  </si>
-  <si>
-    <t>万砷</t>
-  </si>
-  <si>
-    <t>尹甭</t>
-  </si>
-  <si>
-    <t>毛吨</t>
-  </si>
-  <si>
-    <t>尹禄</t>
-  </si>
-  <si>
-    <t>邱湍氰</t>
-  </si>
-  <si>
-    <t>乔划皱</t>
-  </si>
-  <si>
-    <t>许奇儒</t>
-  </si>
-  <si>
-    <t>杨失孩</t>
-  </si>
-  <si>
-    <t>魏辩</t>
-  </si>
-  <si>
-    <t>易釉浆</t>
-  </si>
-  <si>
-    <t>邹憎姆</t>
-  </si>
-  <si>
-    <t>汤截彝</t>
-  </si>
-  <si>
-    <t>邹蜕</t>
-  </si>
-  <si>
-    <t>任谢柄</t>
-  </si>
-  <si>
-    <t>宋氟</t>
-  </si>
-  <si>
-    <t>崔喷</t>
-  </si>
-  <si>
-    <t>方蜗</t>
-  </si>
-  <si>
-    <t>侯弯</t>
-  </si>
-  <si>
-    <t>赵评伤</t>
-  </si>
-  <si>
-    <t>戴珊</t>
-  </si>
-  <si>
-    <t>叶勺愚</t>
-  </si>
-  <si>
-    <t>龚爷</t>
-  </si>
-  <si>
-    <t>秦瞬</t>
-  </si>
-  <si>
-    <t>熊菱</t>
-  </si>
-  <si>
-    <t>薛谜</t>
-  </si>
-  <si>
-    <t>姜造</t>
-  </si>
-  <si>
-    <t>秦交</t>
-  </si>
-  <si>
-    <t>卢费葫</t>
-  </si>
-  <si>
-    <t>吴利消</t>
-  </si>
-  <si>
-    <t>潘恐荡</t>
-  </si>
-  <si>
-    <t>萧蒙读</t>
-  </si>
-  <si>
-    <t>段畔</t>
-  </si>
-  <si>
-    <t>杜拂</t>
-  </si>
-  <si>
-    <t>秦夫廉</t>
-  </si>
-  <si>
-    <t>段篙</t>
-  </si>
-  <si>
-    <t>武咯</t>
-  </si>
-  <si>
-    <t>吴聚</t>
-  </si>
-  <si>
-    <t>董很桨</t>
-  </si>
-  <si>
-    <t>常沏钒</t>
-  </si>
-  <si>
-    <t>傅灸</t>
-  </si>
-  <si>
-    <t>顾舒</t>
-  </si>
-  <si>
-    <t>贾钠练</t>
-  </si>
-  <si>
-    <t>贺妨</t>
-  </si>
-  <si>
-    <t>于祟</t>
-  </si>
-  <si>
-    <t>杜淳</t>
-  </si>
-  <si>
-    <t>康烧</t>
-  </si>
-  <si>
-    <t>白集世</t>
-  </si>
-  <si>
-    <t>贾屉</t>
-  </si>
-  <si>
-    <t>叶筷</t>
-  </si>
-  <si>
-    <t>廖空</t>
-  </si>
-  <si>
-    <t>邱喊铀</t>
-  </si>
-  <si>
-    <t>萧燥</t>
-  </si>
-  <si>
-    <t>谭储汇</t>
-  </si>
-  <si>
-    <t>罗除</t>
-  </si>
-  <si>
-    <t>钟伍含</t>
-  </si>
-  <si>
-    <t>田烫隶</t>
-  </si>
-  <si>
-    <t>段监津</t>
-  </si>
-  <si>
-    <t>汤鼠</t>
-  </si>
-  <si>
-    <t>周销</t>
-  </si>
-  <si>
-    <t>徐删</t>
-  </si>
-  <si>
-    <t>易怖沛</t>
-  </si>
-  <si>
-    <t>江引鉴</t>
-  </si>
-  <si>
-    <t>漕危抨</t>
-  </si>
-  <si>
-    <t>史蛊</t>
-  </si>
-  <si>
-    <t>漕摊</t>
-  </si>
-  <si>
-    <t>万姨锤</t>
-  </si>
-  <si>
-    <t>唐敛嗽</t>
-  </si>
-  <si>
-    <t>邓议</t>
-  </si>
-  <si>
-    <t>曾对购</t>
-  </si>
-  <si>
-    <t>刘靶缴</t>
-  </si>
-  <si>
-    <t>黎杀滔</t>
-  </si>
-  <si>
-    <t>崔纹</t>
-  </si>
-  <si>
-    <t>黎塌</t>
-  </si>
-  <si>
-    <t>金坍勒</t>
-  </si>
-  <si>
-    <t>邱传</t>
-  </si>
-  <si>
-    <t>沈赃番</t>
-  </si>
-  <si>
-    <t>萧导</t>
-  </si>
-  <si>
-    <t>傅抄舔</t>
-  </si>
-  <si>
-    <t>易拐</t>
-  </si>
-  <si>
-    <t>薛侵</t>
-  </si>
-  <si>
-    <t>王夺洽</t>
-  </si>
-  <si>
-    <t>熊轿</t>
-  </si>
-  <si>
-    <t>姜撒克</t>
-  </si>
-  <si>
-    <t>孔腔册</t>
-  </si>
-  <si>
-    <t>杨缎酮</t>
-  </si>
-  <si>
-    <t>唐逐</t>
-  </si>
-  <si>
-    <t>任孕吹</t>
-  </si>
-  <si>
-    <t>叶帘抹</t>
+    <t>邹刻跑</t>
+  </si>
+  <si>
+    <t>曹连</t>
+  </si>
+  <si>
+    <t>田脯</t>
+  </si>
+  <si>
+    <t>赖也</t>
+  </si>
+  <si>
+    <t>卢见棵</t>
+  </si>
+  <si>
+    <t>顾基彤</t>
+  </si>
+  <si>
+    <t>贺幢趾</t>
+  </si>
+  <si>
+    <t>白尹割</t>
+  </si>
+  <si>
+    <t>贾麓靡</t>
+  </si>
+  <si>
+    <t>程框标</t>
+  </si>
+  <si>
+    <t>毛锐</t>
+  </si>
+  <si>
+    <t>毛邑</t>
+  </si>
+  <si>
+    <t>赵箩</t>
+  </si>
+  <si>
+    <t>胡撼</t>
+  </si>
+  <si>
+    <t>袁羽蚕</t>
+  </si>
+  <si>
+    <t>徐丙</t>
+  </si>
+  <si>
+    <t>姚聚汉</t>
+  </si>
+  <si>
+    <t>王疟</t>
+  </si>
+  <si>
+    <t>曹睫姑</t>
+  </si>
+  <si>
+    <t>阎制舌</t>
+  </si>
+  <si>
+    <t>冯锡涎</t>
+  </si>
+  <si>
+    <t>江魏</t>
+  </si>
+  <si>
+    <t>陈真宰</t>
+  </si>
+  <si>
+    <t>毛疲圃</t>
+  </si>
+  <si>
+    <t>汤捂</t>
+  </si>
+  <si>
+    <t>于眉粉</t>
+  </si>
+  <si>
+    <t>林拯抖</t>
+  </si>
+  <si>
+    <t>孙嗣蛆</t>
+  </si>
+  <si>
+    <t>漕弃</t>
+  </si>
+  <si>
+    <t>高兢假</t>
+  </si>
+  <si>
+    <t>余好翠</t>
+  </si>
+  <si>
+    <t>田剐鹰</t>
+  </si>
+  <si>
+    <t>白槐点</t>
+  </si>
+  <si>
+    <t>金噶屈</t>
+  </si>
+  <si>
+    <t>高忻絮</t>
+  </si>
+  <si>
+    <t>于詹祭</t>
+  </si>
+  <si>
+    <t>武蔓骗</t>
+  </si>
+  <si>
+    <t>苏焦</t>
+  </si>
+  <si>
+    <t>梁辖</t>
+  </si>
+  <si>
+    <t>钱艇</t>
+  </si>
+  <si>
+    <t>林秩</t>
+  </si>
+  <si>
+    <t>侯复瞅</t>
+  </si>
+  <si>
+    <t>夏渗</t>
+  </si>
+  <si>
+    <t>吴两</t>
+  </si>
+  <si>
+    <t>程草留</t>
+  </si>
+  <si>
+    <t>常乃</t>
+  </si>
+  <si>
+    <t>何遭</t>
+  </si>
+  <si>
+    <t>萧仍</t>
+  </si>
+  <si>
+    <t>谭阜媒</t>
+  </si>
+  <si>
+    <t>康艾沉</t>
+  </si>
+  <si>
+    <t>黎疫</t>
+  </si>
+  <si>
+    <t>朱瞻岩</t>
+  </si>
+  <si>
+    <t>黄隧</t>
+  </si>
+  <si>
+    <t>邵佃弘</t>
+  </si>
+  <si>
+    <t>任戴</t>
+  </si>
+  <si>
+    <t>段困跟</t>
+  </si>
+  <si>
+    <t>赵刮</t>
+  </si>
+  <si>
+    <t>苏等</t>
+  </si>
+  <si>
+    <t>邵根屉</t>
+  </si>
+  <si>
+    <t>魏褥</t>
+  </si>
+  <si>
+    <t>曾媒哗</t>
+  </si>
+  <si>
+    <t>傅鸟</t>
+  </si>
+  <si>
+    <t>朱瓷</t>
+  </si>
+  <si>
+    <t>姚甜</t>
+  </si>
+  <si>
+    <t>余敖琅</t>
+  </si>
+  <si>
+    <t>龙舌</t>
+  </si>
+  <si>
+    <t>白驹每</t>
+  </si>
+  <si>
+    <t>漕媳楷</t>
+  </si>
+  <si>
+    <t>康池樱</t>
+  </si>
+  <si>
+    <t>袁饿</t>
+  </si>
+  <si>
+    <t>马薪赵</t>
+  </si>
+  <si>
+    <t>廖奇产</t>
+  </si>
+  <si>
+    <t>康炸惋</t>
+  </si>
+  <si>
+    <t>江魔冀</t>
+  </si>
+  <si>
+    <t>邓撑</t>
+  </si>
+  <si>
+    <t>易陛</t>
+  </si>
+  <si>
+    <t>林擅倦</t>
+  </si>
+  <si>
+    <t>漕讶</t>
+  </si>
+  <si>
+    <t>罗秩</t>
+  </si>
+  <si>
+    <t>郭摧</t>
+  </si>
+  <si>
+    <t>白杜</t>
+  </si>
+  <si>
+    <t>薛引桶</t>
+  </si>
+  <si>
+    <t>杜淋谣</t>
+  </si>
+  <si>
+    <t>贺坟</t>
+  </si>
+  <si>
+    <t>易踩壕</t>
+  </si>
+  <si>
+    <t>贾箍</t>
+  </si>
+  <si>
+    <t>金湃</t>
+  </si>
+  <si>
+    <t>苏迷</t>
+  </si>
+  <si>
+    <t>蒋末团</t>
+  </si>
+  <si>
+    <t>易痪</t>
+  </si>
+  <si>
+    <t>顾亲</t>
+  </si>
+  <si>
+    <t>邓楞</t>
+  </si>
+  <si>
+    <t>崔搔</t>
+  </si>
+  <si>
+    <t>石卷</t>
+  </si>
+  <si>
+    <t>何悬诬</t>
+  </si>
+  <si>
+    <t>魏腾</t>
+  </si>
+  <si>
+    <t>郭吕骤</t>
+  </si>
+  <si>
+    <t>康峭</t>
+  </si>
+  <si>
+    <t>蔡契疽</t>
+  </si>
+  <si>
+    <t>马汕递</t>
+  </si>
+  <si>
+    <t>江瞳</t>
+  </si>
+  <si>
+    <t>冯刃</t>
+  </si>
+  <si>
+    <t>常式朗</t>
+  </si>
+  <si>
+    <t>漕辈舶</t>
+  </si>
+  <si>
+    <t>乔扰</t>
+  </si>
+  <si>
+    <t>邓剿即</t>
+  </si>
+  <si>
+    <t>汪栗</t>
+  </si>
+  <si>
+    <t>姚墨</t>
+  </si>
+  <si>
+    <t>蔡毕建</t>
+  </si>
+  <si>
+    <t>乔贝</t>
   </si>
 </sst>
 </file>

--- a/3.5.1/3.5.1/src/main/webapp/file/users.xlsx
+++ b/3.5.1/3.5.1/src/main/webapp/file/users.xlsx
@@ -23,340 +23,340 @@
     <t>密码</t>
   </si>
   <si>
-    <t>何捞叛</t>
+    <t>金拔</t>
   </si>
   <si>
     <t>123456</t>
   </si>
   <si>
-    <t>邹刻跑</t>
-  </si>
-  <si>
-    <t>曹连</t>
-  </si>
-  <si>
-    <t>田脯</t>
-  </si>
-  <si>
-    <t>赖也</t>
-  </si>
-  <si>
-    <t>卢见棵</t>
-  </si>
-  <si>
-    <t>顾基彤</t>
-  </si>
-  <si>
-    <t>贺幢趾</t>
-  </si>
-  <si>
-    <t>白尹割</t>
-  </si>
-  <si>
-    <t>贾麓靡</t>
-  </si>
-  <si>
-    <t>程框标</t>
-  </si>
-  <si>
-    <t>毛锐</t>
-  </si>
-  <si>
-    <t>毛邑</t>
-  </si>
-  <si>
-    <t>赵箩</t>
-  </si>
-  <si>
-    <t>胡撼</t>
-  </si>
-  <si>
-    <t>袁羽蚕</t>
-  </si>
-  <si>
-    <t>徐丙</t>
-  </si>
-  <si>
-    <t>姚聚汉</t>
-  </si>
-  <si>
-    <t>王疟</t>
-  </si>
-  <si>
-    <t>曹睫姑</t>
-  </si>
-  <si>
-    <t>阎制舌</t>
-  </si>
-  <si>
-    <t>冯锡涎</t>
-  </si>
-  <si>
-    <t>江魏</t>
-  </si>
-  <si>
-    <t>陈真宰</t>
-  </si>
-  <si>
-    <t>毛疲圃</t>
-  </si>
-  <si>
-    <t>汤捂</t>
-  </si>
-  <si>
-    <t>于眉粉</t>
-  </si>
-  <si>
-    <t>林拯抖</t>
-  </si>
-  <si>
-    <t>孙嗣蛆</t>
-  </si>
-  <si>
-    <t>漕弃</t>
-  </si>
-  <si>
-    <t>高兢假</t>
-  </si>
-  <si>
-    <t>余好翠</t>
-  </si>
-  <si>
-    <t>田剐鹰</t>
-  </si>
-  <si>
-    <t>白槐点</t>
-  </si>
-  <si>
-    <t>金噶屈</t>
-  </si>
-  <si>
-    <t>高忻絮</t>
-  </si>
-  <si>
-    <t>于詹祭</t>
-  </si>
-  <si>
-    <t>武蔓骗</t>
-  </si>
-  <si>
-    <t>苏焦</t>
-  </si>
-  <si>
-    <t>梁辖</t>
-  </si>
-  <si>
-    <t>钱艇</t>
-  </si>
-  <si>
-    <t>林秩</t>
-  </si>
-  <si>
-    <t>侯复瞅</t>
-  </si>
-  <si>
-    <t>夏渗</t>
-  </si>
-  <si>
-    <t>吴两</t>
-  </si>
-  <si>
-    <t>程草留</t>
-  </si>
-  <si>
-    <t>常乃</t>
-  </si>
-  <si>
-    <t>何遭</t>
-  </si>
-  <si>
-    <t>萧仍</t>
-  </si>
-  <si>
-    <t>谭阜媒</t>
-  </si>
-  <si>
-    <t>康艾沉</t>
-  </si>
-  <si>
-    <t>黎疫</t>
-  </si>
-  <si>
-    <t>朱瞻岩</t>
-  </si>
-  <si>
-    <t>黄隧</t>
-  </si>
-  <si>
-    <t>邵佃弘</t>
-  </si>
-  <si>
-    <t>任戴</t>
-  </si>
-  <si>
-    <t>段困跟</t>
-  </si>
-  <si>
-    <t>赵刮</t>
-  </si>
-  <si>
-    <t>苏等</t>
-  </si>
-  <si>
-    <t>邵根屉</t>
-  </si>
-  <si>
-    <t>魏褥</t>
-  </si>
-  <si>
-    <t>曾媒哗</t>
-  </si>
-  <si>
-    <t>傅鸟</t>
-  </si>
-  <si>
-    <t>朱瓷</t>
-  </si>
-  <si>
-    <t>姚甜</t>
-  </si>
-  <si>
-    <t>余敖琅</t>
-  </si>
-  <si>
-    <t>龙舌</t>
-  </si>
-  <si>
-    <t>白驹每</t>
-  </si>
-  <si>
-    <t>漕媳楷</t>
-  </si>
-  <si>
-    <t>康池樱</t>
-  </si>
-  <si>
-    <t>袁饿</t>
-  </si>
-  <si>
-    <t>马薪赵</t>
-  </si>
-  <si>
-    <t>廖奇产</t>
-  </si>
-  <si>
-    <t>康炸惋</t>
-  </si>
-  <si>
-    <t>江魔冀</t>
-  </si>
-  <si>
-    <t>邓撑</t>
-  </si>
-  <si>
-    <t>易陛</t>
-  </si>
-  <si>
-    <t>林擅倦</t>
-  </si>
-  <si>
-    <t>漕讶</t>
-  </si>
-  <si>
-    <t>罗秩</t>
-  </si>
-  <si>
-    <t>郭摧</t>
-  </si>
-  <si>
-    <t>白杜</t>
-  </si>
-  <si>
-    <t>薛引桶</t>
-  </si>
-  <si>
-    <t>杜淋谣</t>
-  </si>
-  <si>
-    <t>贺坟</t>
-  </si>
-  <si>
-    <t>易踩壕</t>
-  </si>
-  <si>
-    <t>贾箍</t>
-  </si>
-  <si>
-    <t>金湃</t>
-  </si>
-  <si>
-    <t>苏迷</t>
-  </si>
-  <si>
-    <t>蒋末团</t>
-  </si>
-  <si>
-    <t>易痪</t>
-  </si>
-  <si>
-    <t>顾亲</t>
-  </si>
-  <si>
-    <t>邓楞</t>
-  </si>
-  <si>
-    <t>崔搔</t>
-  </si>
-  <si>
-    <t>石卷</t>
-  </si>
-  <si>
-    <t>何悬诬</t>
-  </si>
-  <si>
-    <t>魏腾</t>
-  </si>
-  <si>
-    <t>郭吕骤</t>
-  </si>
-  <si>
-    <t>康峭</t>
-  </si>
-  <si>
-    <t>蔡契疽</t>
-  </si>
-  <si>
-    <t>马汕递</t>
-  </si>
-  <si>
-    <t>江瞳</t>
-  </si>
-  <si>
-    <t>冯刃</t>
-  </si>
-  <si>
-    <t>常式朗</t>
-  </si>
-  <si>
-    <t>漕辈舶</t>
-  </si>
-  <si>
-    <t>乔扰</t>
-  </si>
-  <si>
-    <t>邓剿即</t>
-  </si>
-  <si>
-    <t>汪栗</t>
-  </si>
-  <si>
-    <t>姚墨</t>
-  </si>
-  <si>
-    <t>蔡毕建</t>
-  </si>
-  <si>
-    <t>乔贝</t>
+    <t>宋妇脆</t>
+  </si>
+  <si>
+    <t>苏髓</t>
+  </si>
+  <si>
+    <t>邱垄</t>
+  </si>
+  <si>
+    <t>方冈</t>
+  </si>
+  <si>
+    <t>易杏忿</t>
+  </si>
+  <si>
+    <t>叶贞航</t>
+  </si>
+  <si>
+    <t>史崭</t>
+  </si>
+  <si>
+    <t>孟闭</t>
+  </si>
+  <si>
+    <t>卢占葵</t>
+  </si>
+  <si>
+    <t>钟袱狸</t>
+  </si>
+  <si>
+    <t>沈契</t>
+  </si>
+  <si>
+    <t>李滚首</t>
+  </si>
+  <si>
+    <t>谢泡契</t>
+  </si>
+  <si>
+    <t>张颜</t>
+  </si>
+  <si>
+    <t>魏袱</t>
+  </si>
+  <si>
+    <t>丁眺渗</t>
+  </si>
+  <si>
+    <t>汪爹厂</t>
+  </si>
+  <si>
+    <t>张抱</t>
+  </si>
+  <si>
+    <t>漕出秽</t>
+  </si>
+  <si>
+    <t>何唬</t>
+  </si>
+  <si>
+    <t>孙遁</t>
+  </si>
+  <si>
+    <t>尹郎刘</t>
+  </si>
+  <si>
+    <t>常遂派</t>
+  </si>
+  <si>
+    <t>傅寝浆</t>
+  </si>
+  <si>
+    <t>孙职</t>
+  </si>
+  <si>
+    <t>韩醛</t>
+  </si>
+  <si>
+    <t>白报</t>
+  </si>
+  <si>
+    <t>程半</t>
+  </si>
+  <si>
+    <t>袁泊略</t>
+  </si>
+  <si>
+    <t>姚圾</t>
+  </si>
+  <si>
+    <t>蒋泪</t>
+  </si>
+  <si>
+    <t>黄拍绍</t>
+  </si>
+  <si>
+    <t>漕耗畸</t>
+  </si>
+  <si>
+    <t>龙丛</t>
+  </si>
+  <si>
+    <t>常拘</t>
+  </si>
+  <si>
+    <t>范排</t>
+  </si>
+  <si>
+    <t>谭非徘</t>
+  </si>
+  <si>
+    <t>贺各袒</t>
+  </si>
+  <si>
+    <t>于犬悦</t>
+  </si>
+  <si>
+    <t>白耐</t>
+  </si>
+  <si>
+    <t>夏捣墨</t>
+  </si>
+  <si>
+    <t>武烽盾</t>
+  </si>
+  <si>
+    <t>侯孪跺</t>
+  </si>
+  <si>
+    <t>刘敛胰</t>
+  </si>
+  <si>
+    <t>袁某濒</t>
+  </si>
+  <si>
+    <t>丁鼻香</t>
+  </si>
+  <si>
+    <t>刘集</t>
+  </si>
+  <si>
+    <t>罗下钨</t>
+  </si>
+  <si>
+    <t>郭腋禹</t>
+  </si>
+  <si>
+    <t>钱溢</t>
+  </si>
+  <si>
+    <t>任井萤</t>
+  </si>
+  <si>
+    <t>袁蛀庚</t>
+  </si>
+  <si>
+    <t>常聪沸</t>
+  </si>
+  <si>
+    <t>孟泼葬</t>
+  </si>
+  <si>
+    <t>邱檬</t>
+  </si>
+  <si>
+    <t>郭浮苇</t>
+  </si>
+  <si>
+    <t>宋车</t>
+  </si>
+  <si>
+    <t>武进奶</t>
+  </si>
+  <si>
+    <t>万侗粕</t>
+  </si>
+  <si>
+    <t>董恭听</t>
+  </si>
+  <si>
+    <t>董黔勘</t>
+  </si>
+  <si>
+    <t>彭祁千</t>
+  </si>
+  <si>
+    <t>孙扣饮</t>
+  </si>
+  <si>
+    <t>刘峭健</t>
+  </si>
+  <si>
+    <t>任把受</t>
+  </si>
+  <si>
+    <t>吴杯醇</t>
+  </si>
+  <si>
+    <t>黄巩候</t>
+  </si>
+  <si>
+    <t>杜人</t>
+  </si>
+  <si>
+    <t>尹婆</t>
+  </si>
+  <si>
+    <t>金桔</t>
+  </si>
+  <si>
+    <t>石忘</t>
+  </si>
+  <si>
+    <t>方常咙</t>
+  </si>
+  <si>
+    <t>江逛</t>
+  </si>
+  <si>
+    <t>孙夏</t>
+  </si>
+  <si>
+    <t>郑栽俗</t>
+  </si>
+  <si>
+    <t>孟搅</t>
+  </si>
+  <si>
+    <t>陈辣柬</t>
+  </si>
+  <si>
+    <t>姚棚</t>
+  </si>
+  <si>
+    <t>白燎慨</t>
+  </si>
+  <si>
+    <t>石氛瑰</t>
+  </si>
+  <si>
+    <t>李简</t>
+  </si>
+  <si>
+    <t>李窝岗</t>
+  </si>
+  <si>
+    <t>黎粘</t>
+  </si>
+  <si>
+    <t>汪晚据</t>
+  </si>
+  <si>
+    <t>傅瓢</t>
+  </si>
+  <si>
+    <t>谭柱</t>
+  </si>
+  <si>
+    <t>王沟尸</t>
+  </si>
+  <si>
+    <t>易殉打</t>
+  </si>
+  <si>
+    <t>董镊瓷</t>
+  </si>
+  <si>
+    <t>侯墨</t>
+  </si>
+  <si>
+    <t>廖并</t>
+  </si>
+  <si>
+    <t>邵忽</t>
+  </si>
+  <si>
+    <t>郝柱</t>
+  </si>
+  <si>
+    <t>田卫</t>
+  </si>
+  <si>
+    <t>何录</t>
+  </si>
+  <si>
+    <t>彭扒</t>
+  </si>
+  <si>
+    <t>田栽</t>
+  </si>
+  <si>
+    <t>孟庚</t>
+  </si>
+  <si>
+    <t>孟南己</t>
+  </si>
+  <si>
+    <t>林觉濒</t>
+  </si>
+  <si>
+    <t>吕发一</t>
+  </si>
+  <si>
+    <t>崔码</t>
+  </si>
+  <si>
+    <t>邵迢迈</t>
+  </si>
+  <si>
+    <t>漕耪</t>
+  </si>
+  <si>
+    <t>张玲</t>
+  </si>
+  <si>
+    <t>王预</t>
+  </si>
+  <si>
+    <t>赵累</t>
+  </si>
+  <si>
+    <t>唐扑</t>
+  </si>
+  <si>
+    <t>蔡郑</t>
+  </si>
+  <si>
+    <t>范测漓</t>
   </si>
 </sst>
 </file>

--- a/3.5.1/3.5.1/src/main/webapp/file/users.xlsx
+++ b/3.5.1/3.5.1/src/main/webapp/file/users.xlsx
@@ -23,340 +23,340 @@
     <t>密码</t>
   </si>
   <si>
-    <t>金拔</t>
+    <t>顾杖</t>
   </si>
   <si>
     <t>123456</t>
   </si>
   <si>
-    <t>宋妇脆</t>
-  </si>
-  <si>
-    <t>苏髓</t>
-  </si>
-  <si>
-    <t>邱垄</t>
-  </si>
-  <si>
-    <t>方冈</t>
-  </si>
-  <si>
-    <t>易杏忿</t>
-  </si>
-  <si>
-    <t>叶贞航</t>
-  </si>
-  <si>
-    <t>史崭</t>
-  </si>
-  <si>
-    <t>孟闭</t>
-  </si>
-  <si>
-    <t>卢占葵</t>
-  </si>
-  <si>
-    <t>钟袱狸</t>
-  </si>
-  <si>
-    <t>沈契</t>
-  </si>
-  <si>
-    <t>李滚首</t>
-  </si>
-  <si>
-    <t>谢泡契</t>
-  </si>
-  <si>
-    <t>张颜</t>
-  </si>
-  <si>
-    <t>魏袱</t>
-  </si>
-  <si>
-    <t>丁眺渗</t>
-  </si>
-  <si>
-    <t>汪爹厂</t>
-  </si>
-  <si>
-    <t>张抱</t>
-  </si>
-  <si>
-    <t>漕出秽</t>
-  </si>
-  <si>
-    <t>何唬</t>
-  </si>
-  <si>
-    <t>孙遁</t>
-  </si>
-  <si>
-    <t>尹郎刘</t>
-  </si>
-  <si>
-    <t>常遂派</t>
-  </si>
-  <si>
-    <t>傅寝浆</t>
-  </si>
-  <si>
-    <t>孙职</t>
-  </si>
-  <si>
-    <t>韩醛</t>
-  </si>
-  <si>
-    <t>白报</t>
-  </si>
-  <si>
-    <t>程半</t>
-  </si>
-  <si>
-    <t>袁泊略</t>
-  </si>
-  <si>
-    <t>姚圾</t>
-  </si>
-  <si>
-    <t>蒋泪</t>
-  </si>
-  <si>
-    <t>黄拍绍</t>
-  </si>
-  <si>
-    <t>漕耗畸</t>
-  </si>
-  <si>
-    <t>龙丛</t>
-  </si>
-  <si>
-    <t>常拘</t>
-  </si>
-  <si>
-    <t>范排</t>
-  </si>
-  <si>
-    <t>谭非徘</t>
-  </si>
-  <si>
-    <t>贺各袒</t>
-  </si>
-  <si>
-    <t>于犬悦</t>
-  </si>
-  <si>
-    <t>白耐</t>
-  </si>
-  <si>
-    <t>夏捣墨</t>
-  </si>
-  <si>
-    <t>武烽盾</t>
-  </si>
-  <si>
-    <t>侯孪跺</t>
-  </si>
-  <si>
-    <t>刘敛胰</t>
-  </si>
-  <si>
-    <t>袁某濒</t>
-  </si>
-  <si>
-    <t>丁鼻香</t>
-  </si>
-  <si>
-    <t>刘集</t>
-  </si>
-  <si>
-    <t>罗下钨</t>
-  </si>
-  <si>
-    <t>郭腋禹</t>
-  </si>
-  <si>
-    <t>钱溢</t>
-  </si>
-  <si>
-    <t>任井萤</t>
-  </si>
-  <si>
-    <t>袁蛀庚</t>
-  </si>
-  <si>
-    <t>常聪沸</t>
-  </si>
-  <si>
-    <t>孟泼葬</t>
-  </si>
-  <si>
-    <t>邱檬</t>
-  </si>
-  <si>
-    <t>郭浮苇</t>
-  </si>
-  <si>
-    <t>宋车</t>
-  </si>
-  <si>
-    <t>武进奶</t>
-  </si>
-  <si>
-    <t>万侗粕</t>
-  </si>
-  <si>
-    <t>董恭听</t>
-  </si>
-  <si>
-    <t>董黔勘</t>
-  </si>
-  <si>
-    <t>彭祁千</t>
-  </si>
-  <si>
-    <t>孙扣饮</t>
-  </si>
-  <si>
-    <t>刘峭健</t>
-  </si>
-  <si>
-    <t>任把受</t>
-  </si>
-  <si>
-    <t>吴杯醇</t>
-  </si>
-  <si>
-    <t>黄巩候</t>
-  </si>
-  <si>
-    <t>杜人</t>
-  </si>
-  <si>
-    <t>尹婆</t>
-  </si>
-  <si>
-    <t>金桔</t>
-  </si>
-  <si>
-    <t>石忘</t>
-  </si>
-  <si>
-    <t>方常咙</t>
-  </si>
-  <si>
-    <t>江逛</t>
-  </si>
-  <si>
-    <t>孙夏</t>
-  </si>
-  <si>
-    <t>郑栽俗</t>
-  </si>
-  <si>
-    <t>孟搅</t>
-  </si>
-  <si>
-    <t>陈辣柬</t>
-  </si>
-  <si>
-    <t>姚棚</t>
-  </si>
-  <si>
-    <t>白燎慨</t>
-  </si>
-  <si>
-    <t>石氛瑰</t>
-  </si>
-  <si>
-    <t>李简</t>
-  </si>
-  <si>
-    <t>李窝岗</t>
-  </si>
-  <si>
-    <t>黎粘</t>
-  </si>
-  <si>
-    <t>汪晚据</t>
-  </si>
-  <si>
-    <t>傅瓢</t>
-  </si>
-  <si>
-    <t>谭柱</t>
-  </si>
-  <si>
-    <t>王沟尸</t>
-  </si>
-  <si>
-    <t>易殉打</t>
-  </si>
-  <si>
-    <t>董镊瓷</t>
-  </si>
-  <si>
-    <t>侯墨</t>
-  </si>
-  <si>
-    <t>廖并</t>
-  </si>
-  <si>
-    <t>邵忽</t>
-  </si>
-  <si>
-    <t>郝柱</t>
-  </si>
-  <si>
-    <t>田卫</t>
-  </si>
-  <si>
-    <t>何录</t>
-  </si>
-  <si>
-    <t>彭扒</t>
-  </si>
-  <si>
-    <t>田栽</t>
-  </si>
-  <si>
-    <t>孟庚</t>
-  </si>
-  <si>
-    <t>孟南己</t>
-  </si>
-  <si>
-    <t>林觉濒</t>
-  </si>
-  <si>
-    <t>吕发一</t>
-  </si>
-  <si>
-    <t>崔码</t>
-  </si>
-  <si>
-    <t>邵迢迈</t>
-  </si>
-  <si>
-    <t>漕耪</t>
-  </si>
-  <si>
-    <t>张玲</t>
-  </si>
-  <si>
-    <t>王预</t>
-  </si>
-  <si>
-    <t>赵累</t>
-  </si>
-  <si>
-    <t>唐扑</t>
-  </si>
-  <si>
-    <t>蔡郑</t>
-  </si>
-  <si>
-    <t>范测漓</t>
+    <t>侯吝</t>
+  </si>
+  <si>
+    <t>吕踏焊</t>
+  </si>
+  <si>
+    <t>孟缸亏</t>
+  </si>
+  <si>
+    <t>韩仑凭</t>
+  </si>
+  <si>
+    <t>龙幸</t>
+  </si>
+  <si>
+    <t>范横</t>
+  </si>
+  <si>
+    <t>廖沧</t>
+  </si>
+  <si>
+    <t>邵剃</t>
+  </si>
+  <si>
+    <t>赵伍</t>
+  </si>
+  <si>
+    <t>林滴脚</t>
+  </si>
+  <si>
+    <t>傅旱</t>
+  </si>
+  <si>
+    <t>孙旁斯</t>
+  </si>
+  <si>
+    <t>毛彻捐</t>
+  </si>
+  <si>
+    <t>万侦吟</t>
+  </si>
+  <si>
+    <t>薛机锑</t>
+  </si>
+  <si>
+    <t>魏召</t>
+  </si>
+  <si>
+    <t>何虐</t>
+  </si>
+  <si>
+    <t>郭曼篡</t>
+  </si>
+  <si>
+    <t>江揉侮</t>
+  </si>
+  <si>
+    <t>徐猫</t>
+  </si>
+  <si>
+    <t>叶菇</t>
+  </si>
+  <si>
+    <t>陈窗</t>
+  </si>
+  <si>
+    <t>乔炭</t>
+  </si>
+  <si>
+    <t>林念</t>
+  </si>
+  <si>
+    <t>余趾</t>
+  </si>
+  <si>
+    <t>唐古杏</t>
+  </si>
+  <si>
+    <t>赵陨</t>
+  </si>
+  <si>
+    <t>刘陋</t>
+  </si>
+  <si>
+    <t>何磕忍</t>
+  </si>
+  <si>
+    <t>廖桐</t>
+  </si>
+  <si>
+    <t>白雀</t>
+  </si>
+  <si>
+    <t>万怔</t>
+  </si>
+  <si>
+    <t>卢栓蛇</t>
+  </si>
+  <si>
+    <t>贺庙现</t>
+  </si>
+  <si>
+    <t>熊节</t>
+  </si>
+  <si>
+    <t>廖架</t>
+  </si>
+  <si>
+    <t>徐含</t>
+  </si>
+  <si>
+    <t>郑擅训</t>
+  </si>
+  <si>
+    <t>梁臃</t>
+  </si>
+  <si>
+    <t>谭艺洽</t>
+  </si>
+  <si>
+    <t>赖感</t>
+  </si>
+  <si>
+    <t>曾其</t>
+  </si>
+  <si>
+    <t>易纫</t>
+  </si>
+  <si>
+    <t>龚伏制</t>
+  </si>
+  <si>
+    <t>秦炼</t>
+  </si>
+  <si>
+    <t>黎孟</t>
+  </si>
+  <si>
+    <t>林隙玲</t>
+  </si>
+  <si>
+    <t>康胺夹</t>
+  </si>
+  <si>
+    <t>孔役必</t>
+  </si>
+  <si>
+    <t>阎躬</t>
+  </si>
+  <si>
+    <t>唐荷篮</t>
+  </si>
+  <si>
+    <t>徐娶</t>
+  </si>
+  <si>
+    <t>叶简</t>
+  </si>
+  <si>
+    <t>孙楼弛</t>
+  </si>
+  <si>
+    <t>朱蒋婿</t>
+  </si>
+  <si>
+    <t>顾折裹</t>
+  </si>
+  <si>
+    <t>林堡</t>
+  </si>
+  <si>
+    <t>梁观芒</t>
+  </si>
+  <si>
+    <t>吴躲</t>
+  </si>
+  <si>
+    <t>徐斩</t>
+  </si>
+  <si>
+    <t>魏贞</t>
+  </si>
+  <si>
+    <t>程钞浅</t>
+  </si>
+  <si>
+    <t>崔铰壹</t>
+  </si>
+  <si>
+    <t>崔衰</t>
+  </si>
+  <si>
+    <t>邹屁仍</t>
+  </si>
+  <si>
+    <t>孙胺</t>
+  </si>
+  <si>
+    <t>邹碍绦</t>
+  </si>
+  <si>
+    <t>贺尾强</t>
+  </si>
+  <si>
+    <t>沈爷绸</t>
+  </si>
+  <si>
+    <t>郝正汉</t>
+  </si>
+  <si>
+    <t>郝刀擞</t>
+  </si>
+  <si>
+    <t>罗芽</t>
+  </si>
+  <si>
+    <t>汪斥一</t>
+  </si>
+  <si>
+    <t>戴森</t>
+  </si>
+  <si>
+    <t>邹峦条</t>
+  </si>
+  <si>
+    <t>李解关</t>
+  </si>
+  <si>
+    <t>王积</t>
+  </si>
+  <si>
+    <t>王坊</t>
+  </si>
+  <si>
+    <t>余潜</t>
+  </si>
+  <si>
+    <t>叶谓</t>
+  </si>
+  <si>
+    <t>金丝</t>
+  </si>
+  <si>
+    <t>田列</t>
+  </si>
+  <si>
+    <t>邵厩</t>
+  </si>
+  <si>
+    <t>郑脾另</t>
+  </si>
+  <si>
+    <t>崔渴</t>
+  </si>
+  <si>
+    <t>徐禄</t>
+  </si>
+  <si>
+    <t>乔芽弃</t>
+  </si>
+  <si>
+    <t>冯妮跳</t>
+  </si>
+  <si>
+    <t>贺何任</t>
+  </si>
+  <si>
+    <t>武其</t>
+  </si>
+  <si>
+    <t>孟夸恋</t>
+  </si>
+  <si>
+    <t>谢赵扼</t>
+  </si>
+  <si>
+    <t>史侗贼</t>
+  </si>
+  <si>
+    <t>秦鸥</t>
+  </si>
+  <si>
+    <t>汪择弗</t>
+  </si>
+  <si>
+    <t>曾锯霖</t>
+  </si>
+  <si>
+    <t>谢椭</t>
+  </si>
+  <si>
+    <t>朱拨</t>
+  </si>
+  <si>
+    <t>余糠</t>
+  </si>
+  <si>
+    <t>汪弯</t>
+  </si>
+  <si>
+    <t>乔蓖蚤</t>
+  </si>
+  <si>
+    <t>郝崇</t>
+  </si>
+  <si>
+    <t>傅稿挺</t>
+  </si>
+  <si>
+    <t>谭量脏</t>
+  </si>
+  <si>
+    <t>陈蚤</t>
+  </si>
+  <si>
+    <t>石虎营</t>
+  </si>
+  <si>
+    <t>武育煽</t>
+  </si>
+  <si>
+    <t>贾查</t>
+  </si>
+  <si>
+    <t>段咯</t>
+  </si>
+  <si>
+    <t>毛底绰</t>
   </si>
 </sst>
 </file>
